--- a/biology/Médecine/Haemonetics/Haemonetics.xlsx
+++ b/biology/Médecine/Haemonetics/Haemonetics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Haemonetics Corporation est un fournisseur mondial de fournitures et de services pour les produits sanguins. La société a été fondée à Braintree, Massachusetts, par le Dr Jack Latham dans les années 1970. 
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La société a été fondée en 1971. Haemonetics a commencé à produire les récipients et les poches nécessaires à la collecte de sang. Le Latham Bowl était un récipient jetable capable d'automatiser la séparation du sang par centrifugation. Au cours des années 1990, la société a ajouté des lignes de produits et des technologies supplémentaires. La société a ouvert une usine de fabrication à Holbrook, Massachusetts, en 1988. 
 En 1995, la société a acheté le site de fabrication de solutions intraveineuses à Union, Caroline du Sud. 
@@ -558,9 +572,11 @@
           <t>Principaux actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au 22 avril 2020[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 22 avril 2020.
 </t>
         </is>
       </c>
@@ -589,7 +605,9 @@
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les matériels produits par Haemonetics font état d'un certain nombre de fonctionnements douteux voire nocifs pour les patients et donneurs de sang pour lesquelles elles ont permis les transfusions.
 En effet, dès 2011, de grossiers défauts de qualité sont relevés sur les pièces de rechange fournies par la société à l'Établissement français du sang (EFS). En parallèle, en France et aux Pays-Bas, certaines centrifugeuses — utilisées pour le don de plasma sanguin par plasmaphérèse — semblent émettre des « particules noires » en suspension dans les poches de plasma collecté ou dans le sang retourné au donneur. Ces deux faits ne trouvent aucune explication concrète. D'autres incidents sont observés dans les centres de dons et hôpitaux et font également l'objet d'alertes. En 2016, un patient meurt de complications vasculaires à la suite de la panne d'une machine d'autotransfusion survenue pendant une opération chirurgicale.
